--- a/v2/src/main/resources/excel/template.xlsx
+++ b/v2/src/main/resources/excel/template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -105,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +481,342 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/v2/src/main/resources/excel/template.xlsx
+++ b/v2/src/main/resources/excel/template.xlsx
@@ -7,10 +7,13 @@
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -117,8 +120,36 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -417,7 +448,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
